--- a/DOWNLOADS/EDITAIS/U_987805_E_900532025/U_987805_E_900532025_master.xlsx
+++ b/DOWNLOADS/EDITAIS/U_987805_E_900532025/U_987805_E_900532025_master.xlsx
@@ -112,40 +112,40 @@
     <t>Instrumento musical - percursão Instrumento Musical - Percursão Tipo: Triângulo, Material: Aço Cromado, Componentes: Batedor E Corda, Tamanho: 25CM, Características Adicionais: Batedor Com Cabo Revestido</t>
   </si>
   <si>
-    <t>BAQUETA 7A EM MADEIRA HICKORY BATERIA PONTA NYLON, COMPRIMENTO aproximado: 40 cm. Diâmetro aproximado: 14,3 mm. Apresentar catálogo de Amostra. Apresentar amostra física.</t>
-  </si>
-  <si>
-    <t>BAQUETA PARA QUADRITON, PONTA DE NYLON. APRESENTAR CATÁLOGO DE AMOSTRA física.</t>
-  </si>
-  <si>
-    <t>BOMBO DE MARCHA COM COLETE 20"X14" - 20 POLEGADAS DE DIÂMETRO (aproximadamente 50 cm) e 14 polegadas de profundidade (aproximadamente 35 cm), corpo é feito de madeira, como basswood, e os aros são de metal. Apresentar catálogo de Amostra. Apresentar amostra física.</t>
-  </si>
-  <si>
-    <t>CAIXA TENOR 14X12 DE MARCHA COM COLETE CAIXA TENOR DE MARCHA COM colete - dimensões de 14x12: Chave de afinação; 1 (uma) pele batedeira em poliéster com espessura de 190 (micra); 1 (uma) pele resposta em poliéster com espessura 75 (micra); Fuste confeccionado em madeira; Aro metálico em aço inoxidável; 10 (dez) parafusos de afinação cromados; 10 afinações; Colete para caixa tenor confeccionado com alumínio e várias regulagens de altura e inclinação da caixa. Apresentar catálogo de Amostra. Apresentar amostra física.</t>
-  </si>
-  <si>
-    <t>GANZÁ CHOCALHO FORMATO CILÍNDRICO EM ALUMÍNIO 160MM X 48MM. APRESENTAR. Apresentar amostra física.</t>
-  </si>
-  <si>
-    <t>MAÇANETA BAQUETA P/ BUMBO COMPRIMENTO 30CM - DIÂMETRO 2,5CM (TAMANHO do cabo). Tamanho da bola de pelúcia (6cm X 6cm), cordão pendente no cabo para a prática de giros. Apresentar catálogo de Amostra. Apresentar amostra física.</t>
-  </si>
-  <si>
-    <t>PAD ESTUDO BATERIA DIMENSÕES DO PRODUTO. 20P X 5L X 20A CENTÍMETROS; Cor. Natural; Tipo de material do assento. Borracha. Apresentar catálogo de Amostra. Apresentar amostra física.</t>
-  </si>
-  <si>
-    <t>PANDEIRO MEIA LUA MATERIAL DE ALTA RESISTÊNCIA COM 16 PARES DE platinelas em inox e possui manopla de plástico rígido. Apresentar catálogo de Amostra. Apresentar amostra física.</t>
-  </si>
-  <si>
-    <t>PAR DE BAQUETA SIMPLES PARA FANFARRA FEITA DE MADEIRA OU NYLON, PADRÃO educacional. Apresentar catálogo de Amostra. Apresentar amostra física.</t>
-  </si>
-  <si>
-    <t>PAR DE PRATOS DE MÃO 16. Material: Latão. Acessórios inclusos: 1x par de correias. Apresentar catálogo de Amostra. Apresentar amostra física.</t>
-  </si>
-  <si>
-    <t>QUADRITOM DE MARCHA COM COLETE QUADRITON COMPOSTO DE 4 TAMBORES, COM fuste confeccionado em madeira. Colete com várias regulagens de altura do instrumento. Medidas: 1 tom 08" - 4 afinações. 1 tom 10" - 4 afinações. 1 tom 12" - 6 afinações. 1 tom 13" - 6 afinações. Apresentar catálogo de Amostra. Apresentar amostra física.</t>
-  </si>
-  <si>
-    <t>TRIÂNGULO MUSICAL MÉDIO 25CM FEITO DE AÇO, ACOMPANHA BAQUETA. Apresentar catálogo de Amostra. Apresentar amostra física.</t>
+    <t>80911  BAQUETA 7A EM MADEIRA HICKORY 8,00     PAR     109,47   875,76</t>
+  </si>
+  <si>
+    <t>80912  BAQUETA PARA QUADRITON, PONTA 2,00     PAR     78,50    157,00</t>
+  </si>
+  <si>
+    <t>80903 BOMBO DE MARCHA COM COLETE 4,00      UNID    2.061,00 8.244,00</t>
+  </si>
+  <si>
+    <t>80904  CAIXA TENOR 14X12 DE MARCHA COM 4,00      UNID    1.732,41 6.929,64</t>
+  </si>
+  <si>
+    <t>80907 GANZÁ   CHOCALHO   FORMATO 20,00     UNID    49,75    995,00</t>
+  </si>
+  <si>
+    <t>80910 MAÇANETA  BAQUETA   P/ BUMBO 10,00     UNID    25,77    257,70</t>
+  </si>
+  <si>
+    <t>80902  PAD ESTUDO BATERIA DIMENSÕES 30,00     UNID    59,90    1.797,00</t>
+  </si>
+  <si>
+    <t>80908  PANDEIRO MEIA LUA MATERIAL DE 20,00     UNID    39,49    789,80</t>
+  </si>
+  <si>
+    <t>80901  PAR DE BAQUETA SIMPLES PARA 30,00     PAR     10,50    315,00</t>
+  </si>
+  <si>
+    <t>80905  PAR DE PRATOS DE MÃO 16.  Material: 4,00     PAR     260,90   1.043,60</t>
+  </si>
+  <si>
+    <t>80906  QUADRITOM  DE  MARCHA  COM 1,00      UNID    1.699,00 1.699,00</t>
+  </si>
+  <si>
+    <t>80909  TRIÂNGULO MUSICAL MÉDIO 25CM 8,00      UNID    40,19    321,52</t>
   </si>
   <si>
     <t>Unidade</t>
